--- a/ColData.xlsx
+++ b/ColData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmedsalah/Phybion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654EE7D-3FB9-E441-AE87-9EB4B04E0070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C895E8B-7146-754B-955D-CECF1A99DCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,93 +185,6 @@
     <t>4Gy</t>
   </si>
   <si>
-    <t>0Gy-2hrs-F</t>
-  </si>
-  <si>
-    <t>1Gy-2hrs-F</t>
-  </si>
-  <si>
-    <t>0.5Gy-2hrs-F</t>
-  </si>
-  <si>
-    <t>0.5Gy-6hrs-F</t>
-  </si>
-  <si>
-    <t>2Gy-2hrs-F</t>
-  </si>
-  <si>
-    <t>1Gy-6hrs-F</t>
-  </si>
-  <si>
-    <t>4Gy-2hrs-F</t>
-  </si>
-  <si>
-    <t>0Gy-6hrs-F</t>
-  </si>
-  <si>
-    <t>2Gy-6hrs-F</t>
-  </si>
-  <si>
-    <t>0Gy-2hrs-A</t>
-  </si>
-  <si>
-    <t>0.5Gy-2hrs-A</t>
-  </si>
-  <si>
-    <t>0.5Gy-6hrs-A</t>
-  </si>
-  <si>
-    <t>2Gy-6hrs-A</t>
-  </si>
-  <si>
-    <t>0Gy-6hrs-A</t>
-  </si>
-  <si>
-    <t>1Gy-6hrs-A</t>
-  </si>
-  <si>
-    <t>2Gy-2hrs-A</t>
-  </si>
-  <si>
-    <t>1Gy-2hrs-A</t>
-  </si>
-  <si>
-    <t>4Gy-6hrs-A</t>
-  </si>
-  <si>
-    <t>4Gy-2hrs-A</t>
-  </si>
-  <si>
-    <t>2Gy-2hrs-S</t>
-  </si>
-  <si>
-    <t>0.5Gy-6hrs-S</t>
-  </si>
-  <si>
-    <t>0Gy-6hrs-S</t>
-  </si>
-  <si>
-    <t>0Gy-2hrs-S</t>
-  </si>
-  <si>
-    <t>4Gy-2hrs-S</t>
-  </si>
-  <si>
-    <t>0.5Gy-2hrs-S</t>
-  </si>
-  <si>
-    <t>1Gy-2hrs-S</t>
-  </si>
-  <si>
-    <t>1Gy-6hrs-S</t>
-  </si>
-  <si>
-    <t>2Gy-6hrs-S</t>
-  </si>
-  <si>
-    <t>4Gy-6hrs-S</t>
-  </si>
-  <si>
     <t>./Zahnreich_FASTQ_20240701/0Gy-2hrs-F_S38_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -542,9 +455,6 @@
     <t>./salmon_quant_gcBias/2Gy-2hrs-S_S31/quant.sf</t>
   </si>
   <si>
-    <t>4Gy-6hrs-F</t>
-  </si>
-  <si>
     <t>Donors</t>
   </si>
   <si>
@@ -555,6 +465,96 @@
   </si>
   <si>
     <t>donor_3</t>
+  </si>
+  <si>
+    <t>0Gy-2hrs-do1</t>
+  </si>
+  <si>
+    <t>1Gy-2hrs-do1</t>
+  </si>
+  <si>
+    <t>0.5Gy-2hrs-do1</t>
+  </si>
+  <si>
+    <t>0.5Gy-6hrs-do1</t>
+  </si>
+  <si>
+    <t>2Gy-2hrs-do1</t>
+  </si>
+  <si>
+    <t>1Gy-6hrs-do1</t>
+  </si>
+  <si>
+    <t>4Gy-2hrs-do1</t>
+  </si>
+  <si>
+    <t>0Gy-6hrs-do1</t>
+  </si>
+  <si>
+    <t>2Gy-6hrs-do1</t>
+  </si>
+  <si>
+    <t>4Gy-6hrs-do1</t>
+  </si>
+  <si>
+    <t>0.5Gy-2hrs-do2</t>
+  </si>
+  <si>
+    <t>0.5Gy-6hrs-do2</t>
+  </si>
+  <si>
+    <t>2Gy-6hrs-do2</t>
+  </si>
+  <si>
+    <t>0Gy-6hrs-do2</t>
+  </si>
+  <si>
+    <t>0Gy-2hrs-do2</t>
+  </si>
+  <si>
+    <t>1Gy-6hrs-do2</t>
+  </si>
+  <si>
+    <t>2Gy-2hrs-do2</t>
+  </si>
+  <si>
+    <t>1Gy-2hrs-do2</t>
+  </si>
+  <si>
+    <t>4Gy-6hrs-do2</t>
+  </si>
+  <si>
+    <t>4Gy-2hrs-do2</t>
+  </si>
+  <si>
+    <t>0.5Gy-6hrs-do3</t>
+  </si>
+  <si>
+    <t>0Gy-6hrs-do3</t>
+  </si>
+  <si>
+    <t>0Gy-2hrs-do3</t>
+  </si>
+  <si>
+    <t>4Gy-2hrs-do3</t>
+  </si>
+  <si>
+    <t>0.5Gy-2hrs-do3</t>
+  </si>
+  <si>
+    <t>1Gy-2hrs-do3</t>
+  </si>
+  <si>
+    <t>1Gy-6hrs-do3</t>
+  </si>
+  <si>
+    <t>2Gy-6hrs-do3</t>
+  </si>
+  <si>
+    <t>2Gy-2hrs-do3</t>
+  </si>
+  <si>
+    <t>4Gy-6hrs-do3</t>
   </si>
 </sst>
 </file>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -958,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
@@ -975,10 +975,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -990,16 +990,16 @@
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
         <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1007,10 +1007,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
@@ -1019,16 +1019,16 @@
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
         <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1036,10 +1036,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
@@ -1048,16 +1048,16 @@
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1065,10 +1065,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -1077,16 +1077,16 @@
         <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
         <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1094,10 +1094,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
@@ -1106,16 +1106,16 @@
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
         <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1123,10 +1123,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -1135,16 +1135,16 @@
         <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
         <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1152,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
@@ -1164,16 +1164,16 @@
         <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
         <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1181,10 +1181,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -1193,16 +1193,16 @@
         <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
         <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1210,10 +1210,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
@@ -1222,16 +1222,16 @@
         <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
         <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1239,10 +1239,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
@@ -1251,16 +1251,16 @@
         <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
         <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1268,10 +1268,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
@@ -1280,16 +1280,16 @@
         <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
         <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1297,10 +1297,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
@@ -1309,16 +1309,16 @@
         <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I13" t="s">
         <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1326,10 +1326,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
@@ -1338,16 +1338,16 @@
         <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="H14" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
         <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1355,10 +1355,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -1367,16 +1367,16 @@
         <v>44</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="H15" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
         <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1384,10 +1384,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -1396,16 +1396,16 @@
         <v>43</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="H16" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
         <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1413,10 +1413,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
@@ -1425,16 +1425,16 @@
         <v>44</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="H17" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
         <v>42</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1442,10 +1442,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
@@ -1454,16 +1454,16 @@
         <v>43</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
         <v>42</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1471,10 +1471,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
@@ -1483,16 +1483,16 @@
         <v>43</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s">
         <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1500,10 +1500,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
@@ -1512,16 +1512,16 @@
         <v>44</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1529,10 +1529,10 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
@@ -1541,16 +1541,16 @@
         <v>43</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
         <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1558,10 +1558,10 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
@@ -1570,16 +1570,16 @@
         <v>44</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
         <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1587,10 +1587,10 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -1599,16 +1599,16 @@
         <v>44</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I23" t="s">
         <v>42</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1616,10 +1616,10 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -1628,16 +1628,16 @@
         <v>43</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I24" t="s">
         <v>42</v>
       </c>
       <c r="J24" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1645,10 +1645,10 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
@@ -1657,16 +1657,16 @@
         <v>43</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
         <v>42</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1674,10 +1674,10 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
         <v>47</v>
@@ -1686,16 +1686,16 @@
         <v>43</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I26" t="s">
         <v>42</v>
       </c>
       <c r="J26" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1703,10 +1703,10 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>46</v>
@@ -1715,16 +1715,16 @@
         <v>43</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
         <v>42</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1732,10 +1732,10 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>46</v>
@@ -1744,16 +1744,16 @@
         <v>44</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="H28" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I28" t="s">
         <v>42</v>
       </c>
       <c r="J28" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1761,10 +1761,10 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
@@ -1773,16 +1773,16 @@
         <v>44</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I29" t="s">
         <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1790,10 +1790,10 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
         <v>48</v>
@@ -1802,16 +1802,16 @@
         <v>43</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I30" t="s">
         <v>42</v>
       </c>
       <c r="J30" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1819,10 +1819,10 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>49</v>
@@ -1831,16 +1831,16 @@
         <v>44</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="H31" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I31" t="s">
         <v>42</v>
       </c>
       <c r="J31" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
